--- a/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86262F7-6284-4BF1-ADD3-6DED9FAD60E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2C0056-5F34-48E6-8354-26C0F60CCA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB604EB7-CED4-47A4-BD7E-06416D191F45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCCAB142-6E74-46B2-AEE0-72B29733DD03}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="334">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,82%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>36,09%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,28 +136,28 @@
     <t>13,09%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,7 +169,7 @@
     <t>54,93%</t>
   </si>
   <si>
-    <t>52,64%</t>
+    <t>52,51%</t>
   </si>
   <si>
     <t>57,19%</t>
@@ -178,64 +178,61 @@
     <t>55,01%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>57,47%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>33,42%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>12,39%</t>
@@ -244,7 +241,7 @@
     <t>11,24%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>13,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -253,774 +250,777 @@
     <t>46,73%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
     <t>9,05%</t>
   </si>
   <si>
@@ -1031,9 +1031,6 @@
   </si>
   <si>
     <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
   </si>
   <si>
     <t>10,97%</t>
@@ -1454,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717305D3-3470-4AFE-9A3C-8D49669717C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1F7724-FA5E-4238-B4EE-01379C84F2DA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1802,10 +1799,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1900</v>
@@ -1814,13 +1811,13 @@
         <v>2037413</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1832,13 @@
         <v>654462</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>517</v>
@@ -1850,13 +1847,13 @@
         <v>555417</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1141</v>
@@ -1865,13 +1862,13 @@
         <v>1209878</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1883,13 @@
         <v>228114</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -1901,13 +1898,13 @@
         <v>230915</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -1916,13 +1913,13 @@
         <v>459028</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,7 +1975,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1990,13 +1987,13 @@
         <v>224843</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -2005,13 +2002,13 @@
         <v>223361</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>407</v>
@@ -2020,13 +2017,13 @@
         <v>448204</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2038,13 @@
         <v>181212</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -2056,13 +2053,13 @@
         <v>168743</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -2071,13 +2068,13 @@
         <v>349955</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2089,13 @@
         <v>75126</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2107,13 +2104,13 @@
         <v>66527</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -2122,13 +2119,13 @@
         <v>141652</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2193,13 @@
         <v>1794910</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1702</v>
@@ -2211,13 +2208,13 @@
         <v>1839464</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3373</v>
@@ -2226,13 +2223,13 @@
         <v>3634375</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2244,13 @@
         <v>1186670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1128</v>
@@ -2262,28 +2259,28 @@
         <v>1215908</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2242</v>
       </c>
       <c r="N17" s="7">
-        <v>2402579</v>
+        <v>2402578</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2295,13 @@
         <v>430535</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>451</v>
@@ -2313,13 +2310,13 @@
         <v>483650</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>861</v>
@@ -2328,10 +2325,10 @@
         <v>914184</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>122</v>
@@ -2376,7 +2373,7 @@
         <v>6476</v>
       </c>
       <c r="N19" s="7">
-        <v>6951138</v>
+        <v>6951137</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2409,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736644CA-74EB-4DB5-9D17-A775C93AB610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A28614-6403-4615-BB87-E223B475EB9B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2641,7 +2638,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -2650,13 +2647,13 @@
         <v>104512</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>161</v>
@@ -2665,13 +2662,13 @@
         <v>175820</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2736,13 @@
         <v>1362494</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>1264</v>
@@ -2754,13 +2751,13 @@
         <v>1312956</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>2554</v>
@@ -2769,13 +2766,13 @@
         <v>2675451</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2787,13 @@
         <v>506380</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>430</v>
@@ -2805,13 +2802,13 @@
         <v>444779</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>899</v>
@@ -2820,13 +2817,13 @@
         <v>951159</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2838,13 @@
         <v>199885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -2856,13 +2853,13 @@
         <v>223905</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -2871,13 +2868,13 @@
         <v>423790</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2930,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3077,7 +3074,7 @@
         <v>143285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>202</v>
@@ -3268,13 +3265,13 @@
         <v>410450</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>691</v>
@@ -3283,13 +3280,13 @@
         <v>742895</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D1043-FBF9-4F04-B44B-C2A32E932ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CEC5FE-053B-4680-9339-476F61832840}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3381,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3488,13 +3485,13 @@
         <v>409933</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>1096</v>
@@ -3503,13 +3500,13 @@
         <v>633454</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1620</v>
@@ -3518,13 +3515,13 @@
         <v>1043387</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3536,13 @@
         <v>82042</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3554,13 +3551,13 @@
         <v>130970</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -3569,13 +3566,13 @@
         <v>213012</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3587,13 @@
         <v>48039</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>116</v>
@@ -3605,13 +3602,13 @@
         <v>70895</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>177</v>
@@ -3620,13 +3617,13 @@
         <v>118934</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3691,13 @@
         <v>1620930</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>2205</v>
@@ -3709,13 +3706,13 @@
         <v>1703565</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>3675</v>
@@ -3724,13 +3721,13 @@
         <v>3324496</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3742,13 @@
         <v>365848</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>445</v>
@@ -3760,13 +3757,13 @@
         <v>339207</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>797</v>
@@ -3775,13 +3772,13 @@
         <v>705056</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3793,13 @@
         <v>175243</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>269</v>
@@ -3811,13 +3808,13 @@
         <v>206429</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
@@ -3826,13 +3823,13 @@
         <v>381672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3885,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3900,13 +3897,13 @@
         <v>457218</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>671</v>
@@ -3915,13 +3912,13 @@
         <v>469929</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>1130</v>
@@ -3930,13 +3927,13 @@
         <v>927147</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3948,13 @@
         <v>133784</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -3966,13 +3963,13 @@
         <v>142950</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3981,13 +3978,13 @@
         <v>276733</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3999,13 @@
         <v>82037</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -4017,13 +4014,13 @@
         <v>99567</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -4032,13 +4029,13 @@
         <v>181604</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4103,13 @@
         <v>2488081</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>3972</v>
@@ -4121,13 +4118,13 @@
         <v>2806949</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>6425</v>
@@ -4136,13 +4133,13 @@
         <v>5295029</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4154,13 @@
         <v>581674</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>856</v>
@@ -4172,13 +4169,13 @@
         <v>613127</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>1450</v>
@@ -4187,13 +4184,13 @@
         <v>1194801</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,10 +4223,10 @@
         <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>834</v>
@@ -4238,10 +4235,10 @@
         <v>682210</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>329</v>

--- a/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2C0056-5F34-48E6-8354-26C0F60CCA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E18F949-AECF-4C23-B889-22002BEFDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCCAB142-6E74-46B2-AEE0-72B29733DD03}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A0288C-5EC7-410D-9301-BBD8589C51D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,82%</t>
   </si>
   <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>36,09%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,28 +136,28 @@
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -172,19 +172,22 @@
     <t>52,51%</t>
   </si>
   <si>
-    <t>57,19%</t>
+    <t>57,09%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>57,47%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>53,34%</t>
   </si>
   <si>
     <t>56,67%</t>
@@ -193,853 +196,859 @@
     <t>33,42%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>75,48%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>10,97%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
     <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1F7724-FA5E-4238-B4EE-01379C84F2DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6602294-86AD-4C52-A3FB-0FEE8F6DB402}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1799,10 +1808,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1900</v>
@@ -1811,13 +1820,13 @@
         <v>2037413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1841,13 @@
         <v>654462</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>517</v>
@@ -1847,13 +1856,13 @@
         <v>555417</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1141</v>
@@ -1862,13 +1871,13 @@
         <v>1209878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1892,13 @@
         <v>228114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -1898,13 +1907,13 @@
         <v>230915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -1913,13 +1922,13 @@
         <v>459028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1984,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1987,13 +1996,13 @@
         <v>224843</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -2002,13 +2011,13 @@
         <v>223361</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>407</v>
@@ -2017,13 +2026,13 @@
         <v>448204</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2047,13 @@
         <v>181212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -2053,13 +2062,13 @@
         <v>168743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -2068,13 +2077,13 @@
         <v>349955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2098,13 @@
         <v>75126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2104,13 +2113,13 @@
         <v>66527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -2119,13 +2128,13 @@
         <v>141652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2202,13 @@
         <v>1794910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1702</v>
@@ -2208,13 +2217,13 @@
         <v>1839464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3373</v>
@@ -2223,13 +2232,13 @@
         <v>3634375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2253,13 @@
         <v>1186670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1128</v>
@@ -2259,13 +2268,13 @@
         <v>1215908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2242</v>
@@ -2274,13 +2283,13 @@
         <v>2402578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2304,13 @@
         <v>430535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>451</v>
@@ -2310,13 +2319,13 @@
         <v>483650</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>861</v>
@@ -2325,13 +2334,13 @@
         <v>914184</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2396,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A28614-6403-4615-BB87-E223B475EB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E929CF-63EF-4F84-BEA0-384708E40D4E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,13 +2539,13 @@
         <v>492502</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -2545,13 +2554,13 @@
         <v>649555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1083</v>
@@ -2560,13 +2569,13 @@
         <v>1142057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2590,13 @@
         <v>185540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -2596,13 +2605,13 @@
         <v>231986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -2611,13 +2620,13 @@
         <v>417526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2641,13 @@
         <v>71308</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -2647,13 +2656,13 @@
         <v>104512</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>161</v>
@@ -2662,13 +2671,13 @@
         <v>175820</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2745,13 @@
         <v>1362494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1264</v>
@@ -2751,13 +2760,13 @@
         <v>1312956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>2554</v>
@@ -2766,13 +2775,13 @@
         <v>2675451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2796,13 @@
         <v>506380</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>430</v>
@@ -2802,13 +2811,13 @@
         <v>444779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>899</v>
@@ -2817,13 +2826,13 @@
         <v>951159</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2847,13 @@
         <v>199885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -2853,13 +2862,13 @@
         <v>223905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -2868,13 +2877,13 @@
         <v>423790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2939,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2942,13 +2951,13 @@
         <v>344773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>324</v>
@@ -2957,13 +2966,13 @@
         <v>335247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2972,13 +2981,13 @@
         <v>680020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3002,13 @@
         <v>137835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3008,13 +3017,13 @@
         <v>128831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -3023,13 +3032,13 @@
         <v>266666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3053,13 @@
         <v>61253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -3059,13 +3068,13 @@
         <v>82033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>136</v>
@@ -3074,13 +3083,13 @@
         <v>143285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3178,7 @@
         <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>4275</v>
@@ -3178,13 +3187,13 @@
         <v>4497528</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3208,13 @@
         <v>829756</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>761</v>
@@ -3214,13 +3223,13 @@
         <v>805596</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -3229,13 +3238,13 @@
         <v>1635351</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3259,13 @@
         <v>332446</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>376</v>
@@ -3265,13 +3274,13 @@
         <v>410450</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>691</v>
@@ -3280,13 +3289,13 @@
         <v>742895</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3351,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CEC5FE-053B-4680-9339-476F61832840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE488F4A-E463-49E9-96C1-CB75C24A0E43}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3378,7 +3387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3485,13 +3494,13 @@
         <v>409933</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>1096</v>
@@ -3500,13 +3509,13 @@
         <v>633454</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>1620</v>
@@ -3515,13 +3524,13 @@
         <v>1043387</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3545,13 @@
         <v>82042</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3551,13 +3560,13 @@
         <v>130970</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -3566,13 +3575,13 @@
         <v>213012</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3596,13 @@
         <v>48039</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>116</v>
@@ -3602,13 +3611,13 @@
         <v>70895</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>177</v>
@@ -3617,13 +3626,13 @@
         <v>118934</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3700,13 @@
         <v>1620930</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2205</v>
@@ -3706,28 +3715,28 @@
         <v>1703565</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3675</v>
       </c>
       <c r="N8" s="7">
-        <v>3324496</v>
+        <v>3324495</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3751,13 @@
         <v>365848</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>445</v>
@@ -3757,28 +3766,28 @@
         <v>339207</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>797</v>
       </c>
       <c r="N9" s="7">
-        <v>705056</v>
+        <v>705055</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3802,13 @@
         <v>175243</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>269</v>
@@ -3823,7 +3832,7 @@
         <v>381672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>281</v>
@@ -3871,7 +3880,7 @@
         <v>4911</v>
       </c>
       <c r="N11" s="7">
-        <v>4411223</v>
+        <v>4411222</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3885,7 +3894,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3900,10 +3909,10 @@
         <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>671</v>
@@ -3912,13 +3921,13 @@
         <v>469929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>1130</v>
@@ -3927,13 +3936,13 @@
         <v>927147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3957,13 @@
         <v>133784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -3963,13 +3972,13 @@
         <v>142950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3978,13 +3987,13 @@
         <v>276733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4008,13 @@
         <v>82037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -4014,13 +4023,13 @@
         <v>99567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -4029,13 +4038,13 @@
         <v>181604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4112,13 @@
         <v>2488081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>3972</v>
@@ -4118,13 +4127,13 @@
         <v>2806949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>6425</v>
@@ -4133,13 +4142,13 @@
         <v>5295029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4163,13 @@
         <v>581674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>856</v>
@@ -4169,13 +4178,13 @@
         <v>613127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>1450</v>
@@ -4184,13 +4193,13 @@
         <v>1194801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4214,13 @@
         <v>305320</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>519</v>
@@ -4220,13 +4229,13 @@
         <v>376890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>834</v>
@@ -4235,13 +4244,13 @@
         <v>682210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4306,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E18F949-AECF-4C23-B889-22002BEFDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3A6F41-6CFD-4181-A8DB-2306A000F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A0288C-5EC7-410D-9301-BBD8589C51D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6263F7E-6184-41D8-BEA3-615170B335C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -730,325 +730,313 @@
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6602294-86AD-4C52-A3FB-0FEE8F6DB402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D662581-D968-4547-9528-7CE1F8D2A1AB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2023,7 +2011,7 @@
         <v>407</v>
       </c>
       <c r="N12" s="7">
-        <v>448204</v>
+        <v>448205</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2074,7 +2062,7 @@
         <v>311</v>
       </c>
       <c r="N13" s="7">
-        <v>349955</v>
+        <v>349956</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2125,7 +2113,7 @@
         <v>132</v>
       </c>
       <c r="N14" s="7">
-        <v>141652</v>
+        <v>141653</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2176,7 +2164,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2415,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E929CF-63EF-4F84-BEA0-384708E40D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA9B7B6-6D3C-4F21-9BDA-5D7DFB2804C4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,7 +2677,7 @@
         <v>757</v>
       </c>
       <c r="D7" s="7">
-        <v>749350</v>
+        <v>749351</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3154,7 +3142,7 @@
         <v>2103</v>
       </c>
       <c r="D16" s="7">
-        <v>2199770</v>
+        <v>2199769</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>204</v>
@@ -3307,7 +3295,7 @@
         <v>3200</v>
       </c>
       <c r="D19" s="7">
-        <v>3361972</v>
+        <v>3361971</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3370,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE488F4A-E463-49E9-96C1-CB75C24A0E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CEF02C-D3DC-455E-A629-EBF9F35FD3DC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,7 +3479,7 @@
         <v>524</v>
       </c>
       <c r="D4" s="7">
-        <v>409933</v>
+        <v>391480</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>230</v>
@@ -3506,7 +3494,7 @@
         <v>1096</v>
       </c>
       <c r="I4" s="7">
-        <v>633454</v>
+        <v>574180</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>233</v>
@@ -3521,7 +3509,7 @@
         <v>1620</v>
       </c>
       <c r="N4" s="7">
-        <v>1043387</v>
+        <v>965662</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>236</v>
@@ -3542,7 +3530,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>82042</v>
+        <v>75711</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>239</v>
@@ -3557,7 +3545,7 @@
         <v>214</v>
       </c>
       <c r="I5" s="7">
-        <v>130970</v>
+        <v>116976</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>242</v>
@@ -3572,7 +3560,7 @@
         <v>318</v>
       </c>
       <c r="N5" s="7">
-        <v>213012</v>
+        <v>192687</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>245</v>
@@ -3593,7 +3581,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="7">
-        <v>48039</v>
+        <v>46189</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>248</v>
@@ -3608,7 +3596,7 @@
         <v>116</v>
       </c>
       <c r="I6" s="7">
-        <v>70895</v>
+        <v>63820</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>251</v>
@@ -3623,7 +3611,7 @@
         <v>177</v>
       </c>
       <c r="N6" s="7">
-        <v>118934</v>
+        <v>110009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>254</v>
@@ -3644,7 +3632,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>540014</v>
+        <v>513380</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3659,7 +3647,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835319</v>
+        <v>754977</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3674,7 +3662,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1375333</v>
+        <v>1268358</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3697,7 +3685,7 @@
         <v>1470</v>
       </c>
       <c r="D8" s="7">
-        <v>1620930</v>
+        <v>1776399</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>257</v>
@@ -3712,7 +3700,7 @@
         <v>2205</v>
       </c>
       <c r="I8" s="7">
-        <v>1703565</v>
+        <v>1748215</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>260</v>
@@ -3727,7 +3715,7 @@
         <v>3675</v>
       </c>
       <c r="N8" s="7">
-        <v>3324495</v>
+        <v>3524614</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>263</v>
@@ -3748,46 +3736,46 @@
         <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>365848</v>
+        <v>344586</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>445</v>
       </c>
       <c r="I9" s="7">
-        <v>339207</v>
+        <v>303151</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>797</v>
       </c>
       <c r="N9" s="7">
-        <v>705055</v>
+        <v>647736</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,46 +3787,46 @@
         <v>170</v>
       </c>
       <c r="D10" s="7">
-        <v>175243</v>
+        <v>169342</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>269</v>
       </c>
       <c r="I10" s="7">
-        <v>206429</v>
+        <v>186135</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
       </c>
       <c r="N10" s="7">
-        <v>381672</v>
+        <v>355477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3838,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3865,7 +3853,7 @@
         <v>2919</v>
       </c>
       <c r="I11" s="7">
-        <v>2249201</v>
+        <v>2237500</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3880,7 +3868,7 @@
         <v>4911</v>
       </c>
       <c r="N11" s="7">
-        <v>4411222</v>
+        <v>4527827</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3903,46 +3891,46 @@
         <v>459</v>
       </c>
       <c r="D12" s="7">
-        <v>457218</v>
+        <v>442411</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>671</v>
       </c>
       <c r="I12" s="7">
-        <v>469929</v>
+        <v>437708</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>1130</v>
       </c>
       <c r="N12" s="7">
-        <v>927147</v>
+        <v>880119</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,46 +3942,46 @@
         <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>133784</v>
+        <v>126395</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
       </c>
       <c r="I13" s="7">
-        <v>142950</v>
+        <v>130256</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
       </c>
       <c r="N13" s="7">
-        <v>276733</v>
+        <v>256651</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,46 +3993,46 @@
         <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>82037</v>
+        <v>77817</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>99567</v>
+        <v>91157</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
       </c>
       <c r="N14" s="7">
-        <v>181604</v>
+        <v>168974</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4044,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4071,7 +4059,7 @@
         <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>712446</v>
+        <v>659121</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4086,7 +4074,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1385485</v>
+        <v>1305744</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4109,46 +4097,46 @@
         <v>2453</v>
       </c>
       <c r="D16" s="7">
-        <v>2488081</v>
+        <v>2610291</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>3972</v>
       </c>
       <c r="I16" s="7">
-        <v>2806949</v>
+        <v>2760103</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>6425</v>
       </c>
       <c r="N16" s="7">
-        <v>5295029</v>
+        <v>5370393</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,46 +4148,46 @@
         <v>594</v>
       </c>
       <c r="D17" s="7">
-        <v>581674</v>
+        <v>546692</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>856</v>
       </c>
       <c r="I17" s="7">
-        <v>613127</v>
+        <v>550383</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>1450</v>
       </c>
       <c r="N17" s="7">
-        <v>1194801</v>
+        <v>1097074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,46 +4199,46 @@
         <v>315</v>
       </c>
       <c r="D18" s="7">
-        <v>305320</v>
+        <v>293348</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>519</v>
       </c>
       <c r="I18" s="7">
-        <v>376890</v>
+        <v>341112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>834</v>
       </c>
       <c r="N18" s="7">
-        <v>682210</v>
+        <v>634460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4250,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3375075</v>
+        <v>3450331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4277,7 +4265,7 @@
         <v>5347</v>
       </c>
       <c r="I19" s="7">
-        <v>3796966</v>
+        <v>3651598</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4292,7 +4280,7 @@
         <v>8709</v>
       </c>
       <c r="N19" s="7">
-        <v>7172040</v>
+        <v>7101928</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
